--- a/tests/testthat/fixtures/ex3/tables/mv_person_booklet3.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/mv_person_booklet3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Number of missing responses</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">OM</t>
   </si>
   <si>
@@ -61,28 +58,28 @@
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2</t>
+    <t xml:space="preserve">0.21</t>
   </si>
   <si>
     <t xml:space="preserve">0.06</t>
   </si>
   <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
   </si>
   <si>
     <t xml:space="preserve">0.24</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>81.21</v>
+        <v>80.31</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.99</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>93.64</v>
+        <v>93.91</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.36</v>
+        <v>6.09</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>52.82</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>36.58</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>8.33</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.14</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>39.27</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>39.83</v>
+        <v>38.67</v>
       </c>
     </row>
     <row r="4">
@@ -627,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>16.67</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="6">
@@ -643,15 +640,15 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.56</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.14</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -670,53 +667,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -767,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
